--- a/spreadsheet/macrofree/azureblobstorage_sg_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/azureblobstorage_sg_checklist.ko.xlsx
@@ -1061,12 +1061,12 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>중복을 위해 계정을 구성합니다. 가용성과 내구성을 최대화하려면 ZRS(영역 중복 스토리지) 또는 GZRS를 사용하여 계정을 구성합니다.</t>
+          <t>중복을 위해 계정을 구성합니다. 최대 가용성 및 내구성을 위해 ZRS(영역 중복 스토리지) 또는 GZRS를 사용하여 계정을 구성합니다.</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>중복성은 예기치 않은 오류로부터 데이터를 보호합니다. ZRS 및 GZRS 구성 옵션은 서로 다른 가용성 영역에 복제되며 애플리케이션이 중단 중에도 데이터를 계속 읽을 수 있도록 합니다. 자세한 내용은 Durability and availability by outage scenario 및 Durability and availability parameters를 참조하세요.</t>
+          <t>이중화는 예기치 않은 오류로부터 데이터를 보호합니다. ZRS 및 GZRS 구성 옵션은 서로 다른 가용성 영역에 복제되며 애플리케이션이 중단 중에도 데이터를 계속 읽을 수 있도록 합니다. 자세한 내용은 중단 시나리오별 내구성 및 가용성 및 내구성 및 가용성 매개 변수를 참조하세요.</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1129,12 +1129,12 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>백업 및 복구 전략의 일부로 컨테이너 일시 삭제, Blob 일시 삭제, 버전 관리 및 특정 시점 복원 옵션을 사용하도록 설정합니다.</t>
+          <t>백업 및 복구 전략의 일환으로 컨테이너 일시 삭제, Blob 일시 삭제, 버전 관리 및 특정 시점 복원 옵션을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>일시 삭제 옵션을 사용하면 스토리지 계정에서 삭제된 컨테이너 및 Blob을 복구할 수 있습니다. 버전 관리 옵션은 Blob에 대한 변경 내용을 자동으로 추적합니다. 이 옵션을 사용하면 Blob을 이전 상태로 복원할 수 있습니다. 특정 시점 복원 옵션을 사용하면 실수로 인한 Blob 삭제 또는 손상을 방지하고 블록 Blob 데이터를 이전 상태로 복원할 수 있습니다. 자세한 내용은 데이터 보호 개요를 참조하세요.</t>
+          <t>일시 삭제 옵션을 사용하면 스토리지 계정에서 삭제된 컨테이너 및 Blob을 복구할 수 있습니다. 버전 관리 옵션은 Blob에 대한 변경 내용을 자동으로 추적합니다. 이 옵션을 사용하면 Blob을 이전 상태로 복원할 수 있습니다. 특정 시점 복원 옵션을 사용하면 실수로 Blob이 삭제되거나 손상되는 것을 방지하고 블록 Blob 데이터를 이전 상태로 복원할 수 있습니다. 자세한 내용은 데이터 보호 개요를 참조하세요.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1231,12 +1231,12 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정의 퍼블릭 엔드포인트에 대한 트래픽을 사용하지 않도록 설정합니다. Azure에서 실행되는 클라이언트에 대한 프라이빗 엔드포인트를 만듭니다. Azure 외부의 클라이언트 및 서비스에 스토리지 계정에 대한 직접 액세스가 필요한 경우에만 퍼블릭 엔드포인트를 사용하도록 설정합니다. 특정 가상 네트워크에 대한 액세스를 제한하는 방화벽 규칙을 사용하도록 설정합니다.</t>
+          <t>스토리지 계정의 퍼블릭 엔드포인트에 대한 트래픽을 사용하지 않도록 설정합니다. Azure에서 실행되는 클라이언트에 대한 프라이빗 엔드포인트를 만듭니다. Azure 외부의 클라이언트 및 서비스가 스토리지 계정에 직접 액세스해야 하는 경우에만 퍼블릭 엔드포인트를 사용하도록 설정합니다. 특정 가상 네트워크에 대한 액세스를 제한하는 방화벽 규칙을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>제로 액세스부터 시작한 다음 클라이언트 및 서비스에 필요한 가장 낮은 수준의 액세스 권한을 증분 방식으로 부여하여 공격자에게 불필요한 틈을 만드는 위험을 최소화합니다.</t>
+          <t>제로 액세스부터 시작한 다음 클라이언트 및 서비스에 필요한 가장 낮은 수준의 액세스 권한을 점진적으로 부여하여 공격자에게 불필요한 틈을 만들 위험을 최소화합니다.</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>RBAC를 사용하면 손상될 수 있는 암호나 키가 없습니다. 보안 주체(사용자, 그룹, 관리 ID 또는 서비스 주체)는 OAuth 2.0 토큰을 반환하기 위해 Microsoft Entra ID로 인증됩니다. 토큰은 Blob Storage 서비스에 대한 요청을 승인하는 데 사용됩니다.</t>
+          <t>RBAC를 사용하면 손상될 수 있는 암호나 키가 없습니다. 보안 주체(사용자, 그룹, 관리 ID 또는 서비스 주체)는 OAuth 2.0 토큰을 반환하기 위해 Microsoft Entra ID에 의해 인증됩니다. 토큰은 Blob Storage 서비스에 대한 요청을 승인하는 데 사용됩니다.</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1367,12 +1367,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>공유 액세스 서명 토큰을 사용하지 않는 것이 좋습니다. Blob Storage 리소스에 대한 액세스를 보호하기 위해 공유 액세스 서명 토큰이 필요한지 여부를 평가합니다. 공유 액세스 서명을 만들어야 하는 경우 공유 액세스 서명을 만들고 배포하기 전에 이 공유 액세스 서명 모범 사례 목록을 검토하세요.</t>
+          <t>공유 액세스 서명 토큰을 사용하지 않는 것이 좋습니다. Blob Storage 리소스에 대한 액세스를 보호하기 위해 공유 액세스 서명 토큰이 필요한지 여부를 평가합니다. 공유 액세스 서명을 만들어야 하는 경우 공유 액세스 서명 모범 사례 목록을 검토하고 배포하기 전에 검토하세요.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>모범 사례는 공유 액세스 서명 토큰이 유출되는 것을 방지하고 유출이 발생할 경우 신속하게 복구하는 데 도움이 될 수 있습니다.</t>
+          <t>모범 사례는 공유 액세스 서명 토큰이 유출되는 것을 방지하고 누출이 발생할 경우 신속하게 복구하는 데 도움이 될 수 있습니다.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>쿨 계층은 데이터 전송 비용이 더 높습니다. 더 적은 수의 큰 파일을 보유하면 데이터를 전송하는 데 필요한 작업 수를 줄일 수 있습니다.</t>
+          <t>쿨 계층은 데이터 전송 비용이 더 높습니다. 더 적은 수의 큰 파일을 보유함으로써 데이터를 전송하는 데 필요한 작업 수를 줄일 수 있습니다.</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1503,12 +1503,12 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>보관 스토리지에서 Blob을 리하이드레이션할 때 표준 우선 순위 리하이드레이션을 사용합니다. 우선 순위가 높은 리하이드레이션은 응급 데이터 복원 상황에만 사용합니다. 자세한 내용은 보관된 Blob을 온라인 계층으로 리하이드레이션을 참조하세요.</t>
+          <t>보관 스토리지에서 Blob을 리하이드레이션할 때 표준 우선 순위 리하이드레이션을 사용합니다. 우선 순위가 높은 리하이드레이션은 긴급 데이터 복원 상황에만 사용합니다. 자세한 내용은 보관된 Blob을 온라인 계층으로 리하이드레이션을 참조하세요.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>보관 계층의 우선 순위가 높은 리하이드레이션은 정상보다 높은 청구로 이어질 수 있습니다.</t>
+          <t>보관 계층에서 우선 순위가 높은 리하이드레이션으로 인해 정상보다 높은 청구가 발생할 수 있습니다.</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1537,7 +1537,7 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>적절한 로그 저장 위치를 선택하고 로그 보존 기간을 관리하여 리소스 로그 사용 비용을 줄입니다. 가끔씩만 로그를 쿼리하려는 경우(예: 규정 준수 감사를 위해 로그를 쿼리하는 경우) 리소스 로그를 Azure Monitor 로그 작업 영역으로 보내는 대신 스토리지 계정으로 보내는 것이 좋습니다. Azure Synapse Analytics와 같은 서버리스 쿼리 솔루션을 사용하여 로그를 분석할 수 있습니다. 자세한 내용은 자주 발생하지 않는 쿼리에 대한 비용 최적화를 참조하세요. 수명 주기 관리 정책을 사용하여 로그를 삭제하거나 보관합니다.</t>
+          <t>적절한 로그 저장 위치를 선택하고 로그 보존 기간을 관리하여 리소스 로그 사용 비용을 줄입니다. 가끔씩만 로그를 쿼리하려는 경우(예: 규정 준수 감사를 위한 로그 쿼리) 리소스 로그를 Azure Monitor 로그 작업 영역으로 보내는 대신 스토리지 계정으로 보내는 것이 좋습니다. Azure Synapse Analytics와 같은 서버리스 쿼리 솔루션을 사용하여 로그를 분석할 수 있습니다. 자세한 내용은 자주 발생하지 않는 쿼리에 대한 비용 최적화를 참조하세요. 수명 주기 관리 정책을 사용하여 로그를 삭제하거나 보관합니다.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Blob을 덮어쓸 때마다 새 버전이 추가되어 스토리지 용량 요금이 증가합니다. 용량 요금을 줄이려면 버전 관리를 사용하지 않도록 설정된 별도의 스토리지 계정에 자주 덮어쓰는 데이터를 저장합니다.</t>
+          <t>Blob을 덮어쓸 때마다 새 버전이 추가되어 스토리지 용량 요금이 증가합니다. 용량 요금을 줄이려면 자주 덮어쓰는 데이터를 버전 관리를 사용하지 않도록 설정된 별도의 스토리지 계정에 저장합니다.</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>Blob을 덮어쓸 때마다 새 스냅샷이 만들어집니다. 용량 요금 증가의 원인은 이러한 스냅샷의 생성이 로그에 표시되지 않기 때문에 액세스하기 어려울 수 있습니다. 용량 요금을 줄이려면 자주 덮어쓰는 데이터를 일시 삭제가 비활성화된 별도의 스토리지 계정에 저장합니다. 보존 기간은 일시 삭제된 Blob이 쌓여 용량 비용에 추가되는 것을 방지합니다.</t>
+          <t>Blob을 덮어쓸 때마다 새 스냅샷이 만들어집니다. 용량 요금 증가의 원인은 이러한 스냅샷의 생성이 로그에 표시되지 않기 때문에 액세스하기 어려울 수 있습니다. 용량 요금을 줄이려면 자주 덮어쓰는 데이터를 일시 삭제를 사용하지 않도록 설정된 별도의 스토리지 계정에 저장합니다. 보존 기간은 일시 삭제된 Blob이 쌓여 용량 비용에 추가되는 것을 방지합니다.</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>각 계정의 상태와 운영을 추적할 수 있습니다. 이해 관계자가 스토리지 계정의 상태를 추적하는 데 사용할 수 있는 대시보드 및 보고서를 쉽게 만들 수 있습니다.</t>
+          <t>각 계정의 상태와 운영을 추적할 수 있습니다. 이해 관계자가 스토리지 계정의 상태를 추적하는 데 사용할 수 있는 대시보드와 보고서를 쉽게 만들 수 있습니다.</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정과 VM, 서비스 및 온-프레미스 클라이언트 간의 물리적 거리를 줄이면 성능이 향상되고 네트워크 대기 시간이 줄어들 수 있습니다. 물리적 거리를 줄이면 단일 지역 내의 대역폭 사용량이 무료이기 때문에 Azure에서 호스팅되는 애플리케이션의 비용도 절감됩니다.</t>
+          <t>스토리지 계정과 VM, 서비스 및 온-프레미스 클라이언트 간의 물리적 거리를 줄이면 성능이 향상되고 네트워크 대기 시간이 줄어들 수 있습니다. 물리적 거리를 줄이면 단일 지역 내의 대역폭 사용량이 무료이기 때문에 Azure에서 호스트되는 애플리케이션의 비용도 절감됩니다.</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>콘텐츠는 전 세계 수백 개의 글로벌 및 로컬 접속 지점이 있는 Microsoft 글로벌 에지 네트워크를 사용하기 때문에 클라이언트에게 더 빠르게 제공됩니다.</t>
+          <t>콘텐츠는 전 세계 수백 개의 글로벌 및 로컬 접속 지점과 함께 Microsoft 글로벌 에지 네트워크를 사용하기 때문에 클라이언트에게 더 빠르게 배달됩니다.</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>

--- a/spreadsheet/macrofree/azureblobstorage_sg_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/azureblobstorage_sg_checklist.ko.xlsx
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>이중화는 예기치 않은 오류로부터 데이터를 보호합니다. ZRS 및 GZRS 구성 옵션은 서로 다른 가용성 영역에 복제되며 애플리케이션이 중단 중에도 데이터를 계속 읽을 수 있도록 합니다. 자세한 내용은 중단 시나리오별 내구성 및 가용성 및 내구성 및 가용성 매개 변수를 참조하세요.</t>
+          <t>중복성은 예기치 않은 오류로부터 데이터를 보호합니다. ZRS 및 GZRS 구성 옵션은 서로 다른 가용성 영역에 복제되며 애플리케이션이 중단 중에도 데이터를 계속 읽을 수 있도록 합니다. 자세한 내용은 중단 시나리오별 내구성 및 가용성 및 내구성 및 가용성 매개 변수를 참조하세요.</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1129,7 +1129,7 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>백업 및 복구 전략의 일환으로 컨테이너 일시 삭제, Blob 일시 삭제, 버전 관리 및 특정 시점 복원 옵션을 사용하도록 설정합니다.</t>
+          <t>백업 및 복구 전략의 일부로 컨테이너 일시 삭제, Blob 일시 삭제, 버전 관리 및 특정 시점 복원 옵션을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
@@ -1231,12 +1231,12 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정의 퍼블릭 엔드포인트에 대한 트래픽을 사용하지 않도록 설정합니다. Azure에서 실행되는 클라이언트에 대한 프라이빗 엔드포인트를 만듭니다. Azure 외부의 클라이언트 및 서비스가 스토리지 계정에 직접 액세스해야 하는 경우에만 퍼블릭 엔드포인트를 사용하도록 설정합니다. 특정 가상 네트워크에 대한 액세스를 제한하는 방화벽 규칙을 사용하도록 설정합니다.</t>
+          <t>스토리지 계정의 공용 엔드포인트에 대한 트래픽을 사용하지 않도록 설정합니다. Azure에서 실행되는 클라이언트에 대한 프라이빗 엔드포인트를 만듭니다. Azure 외부의 클라이언트 및 서비스가 스토리지 계정에 직접 액세스해야 하는 경우에만 퍼블릭 엔드포인트를 사용하도록 설정합니다. 특정 가상 네트워크에 대한 액세스를 제한하는 방화벽 규칙을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>제로 액세스부터 시작한 다음 클라이언트 및 서비스에 필요한 가장 낮은 수준의 액세스 권한을 점진적으로 부여하여 공격자에게 불필요한 틈을 만들 위험을 최소화합니다.</t>
+          <t>제로 액세스로 시작한 다음 클라이언트 및 서비스에 필요한 가장 낮은 수준의 액세스 권한을 점진적으로 부여하여 공격자에게 불필요한 구멍을 만들 위험을 최소화합니다.</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1367,12 +1367,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>공유 액세스 서명 토큰을 사용하지 않는 것이 좋습니다. Blob Storage 리소스에 대한 액세스를 보호하기 위해 공유 액세스 서명 토큰이 필요한지 여부를 평가합니다. 공유 액세스 서명을 만들어야 하는 경우 공유 액세스 서명 모범 사례 목록을 검토하고 배포하기 전에 검토하세요.</t>
+          <t>공유 액세스 서명 토큰을 사용하지 않는 것이 좋습니다. Blob Storage 리소스에 대한 액세스를 보호하기 위해 공유 액세스 서명 토큰이 필요한지 여부를 평가합니다. 공유 액세스 서명을 만들어야 하는 경우 공유 액세스 서명을 만들고 배포하기 전에 이 공유 액세스 서명 모범 사례 목록을 검토하세요.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>모범 사례는 공유 액세스 서명 토큰이 유출되는 것을 방지하고 누출이 발생할 경우 신속하게 복구하는 데 도움이 될 수 있습니다.</t>
+          <t>모범 사례는 공유 액세스 서명 토큰이 유출되는 것을 방지하고 누수가 발생할 경우 신속하게 복구하는 데 도움이 될 수 있습니다.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1469,12 +1469,12 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>쿨 계층으로 이동하기 전에 작은 파일을 더 큰 파일로 압축합니다. TAR 또는 ZIP과 같은 파일 형식을 사용할 수 있습니다.</t>
+          <t>쿨 계층으로 이동하기 전에 작은 파일을 큰 파일로 압축합니다. TAR 또는 ZIP과 같은 파일 형식을 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>쿨 계층은 데이터 전송 비용이 더 높습니다. 더 적은 수의 큰 파일을 보유함으로써 데이터를 전송하는 데 필요한 작업 수를 줄일 수 있습니다.</t>
+          <t>쿨 계층은 데이터 전송 비용이 더 높습니다. 더 적은 수의 큰 파일을 보유하면 데이터를 전송하는 데 필요한 작업 수를 줄일 수 있습니다.</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1503,7 +1503,7 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>보관 스토리지에서 Blob을 리하이드레이션할 때 표준 우선 순위 리하이드레이션을 사용합니다. 우선 순위가 높은 리하이드레이션은 긴급 데이터 복원 상황에만 사용합니다. 자세한 내용은 보관된 Blob을 온라인 계층으로 리하이드레이션을 참조하세요.</t>
+          <t>보관 스토리지에서 Blob을 리하이드레이션할 때 표준 우선 순위 리하이드레이션을 사용합니다. 응급 데이터 복원 상황에만 우선 순위가 높은 리하이드레이션을 사용합니다. 자세한 내용은 보관된 Blob을 온라인 계층으로 리하이드레이션을 참조하세요.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
@@ -1537,7 +1537,7 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>적절한 로그 저장 위치를 선택하고 로그 보존 기간을 관리하여 리소스 로그 사용 비용을 줄입니다. 가끔씩만 로그를 쿼리하려는 경우(예: 규정 준수 감사를 위한 로그 쿼리) 리소스 로그를 Azure Monitor 로그 작업 영역으로 보내는 대신 스토리지 계정으로 보내는 것이 좋습니다. Azure Synapse Analytics와 같은 서버리스 쿼리 솔루션을 사용하여 로그를 분석할 수 있습니다. 자세한 내용은 자주 발생하지 않는 쿼리에 대한 비용 최적화를 참조하세요. 수명 주기 관리 정책을 사용하여 로그를 삭제하거나 보관합니다.</t>
+          <t>적절한 로그 저장 위치를 선택하고 로그 보존 기간을 관리하여 리소스 로그 사용 비용을 줄입니다. 가끔씩만 로그를 쿼리하려는 경우(예: 규정 준수 감사를 위해 로그를 쿼리하는 경우) 리소스 로그를 Azure Monitor 로그 작업 영역으로 보내는 대신 스토리지 계정으로 보내는 것이 좋습니다. Azure Synapse Analytics와 같은 서버리스 쿼리 솔루션을 사용하여 로그를 분석할 수 있습니다. 자세한 내용은 자주 발생하지 않는 쿼리에 대한 비용 최적화를 참조하세요. 수명 주기 관리 정책을 사용하여 로그를 삭제하거나 보관합니다.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
@@ -1639,7 +1639,7 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>일시 삭제를 사용하도록 설정하는 경우 자주 덮어쓰는 Blob을 일시 삭제를 사용하도록 설정하지 않은 계정에 배치합니다. 보존 기간을 설정합니다. 기능이 청구서에 어떤 영향을 미치는지 더 잘 이해하기 위해 짧은 보존 기간부터 시작하는 것이 좋습니다. 최소 권장 보존 기간은 7일입니다.</t>
+          <t>일시 삭제를 사용하도록 설정하는 경우 자주 덮어쓰는 Blob을 일시 삭제를 사용하도록 설정되지 않은 계정에 배치합니다. 보존 기간을 설정합니다. 기능이 청구서에 어떤 영향을 미치는지 더 잘 이해하기 위해 짧은 보존 기간부터 시작하는 것이 좋습니다. 최소 권장 보존 기간은 7일입니다.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>각 계정의 상태와 운영을 추적할 수 있습니다. 이해 관계자가 스토리지 계정의 상태를 추적하는 데 사용할 수 있는 대시보드와 보고서를 쉽게 만들 수 있습니다.</t>
+          <t>각 계정의 상태와 운영을 추적할 수 있습니다. 이해 관계자가 스토리지 계정의 상태를 추적하는 데 사용할 수 있는 대시보드 및 보고서를 쉽게 만들 수 있습니다.</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정과 VM, 서비스 및 온-프레미스 클라이언트 간의 물리적 거리를 줄이면 성능이 향상되고 네트워크 대기 시간이 줄어들 수 있습니다. 물리적 거리를 줄이면 단일 지역 내의 대역폭 사용량이 무료이기 때문에 Azure에서 호스트되는 애플리케이션의 비용도 절감됩니다.</t>
+          <t>스토리지 계정과 VM, 서비스 및 온-프레미스 클라이언트 간의 물리적 거리를 줄이면 성능이 향상되고 네트워크 대기 시간이 줄어들 수 있습니다. 물리적 거리를 줄이면 단일 지역 내의 대역폭 사용량이 무료이기 때문에 Azure에서 호스팅되는 애플리케이션의 비용도 절감됩니다.</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>콘텐츠는 전 세계 수백 개의 글로벌 및 로컬 접속 지점과 함께 Microsoft 글로벌 에지 네트워크를 사용하기 때문에 클라이언트에게 더 빠르게 배달됩니다.</t>
+          <t>콘텐츠는 전 세계 수백 개의 글로벌 및 로컬 접속 지점이 있는 Microsoft 글로벌 에지 네트워크를 사용하기 때문에 클라이언트에게 더 빠르게 제공됩니다.</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1872,7 +1872,7 @@
       <c r="B32" s="21" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Blob의 파티션 키에 가능한 한 빨리 해시 문자 시퀀스(예: 3자리 숫자)를 추가합니다. 파티션 키는 계정 이름, 컨테이너 이름, 가상 디렉터리 이름 및 Blob 이름입니다. 이름에 타임스탬프를 사용하려는 경우 해당 스탬프의 시작 부분에 초 값을 추가하는 것이 좋습니다. 자세한 내용은 Partitioning을 참조하십시오.</t>
+          <t>가능한 한 빨리 Blob의 파티션 키에 해시 문자 시퀀스(예: 3자리 숫자)를 추가합니다. 파티션 키는 계정 이름, 컨테이너 이름, 가상 디렉터리 이름 및 Blob 이름입니다. 이름에 타임스탬프를 사용할 계획이라면 해당 스탬프의 시작 부분에 초 값을 추가하는 것이 좋습니다. 자세한 내용은 Partitioning을 참조하십시오.</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
